--- a/Running projects/J. Zeta Mall Islamabad/VO/Summary of VOs.xlsx
+++ b/Running projects/J. Zeta Mall Islamabad/VO/Summary of VOs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7372569E-608E-40BA-B6C9-74F942DB3CBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49BF27A-F205-4109-BFCC-81A8C1346995}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Sr #</t>
   </si>
@@ -64,6 +64,30 @@
   <si>
     <t>15-2-2025</t>
   </si>
+  <si>
+    <t>As per mall requirements, each inlet and outlet connection must be equipped with an individual gate valve for isolation and control.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variations </t>
+  </si>
+  <si>
+    <t>This is Mall requirement and instruction received from Client to installed balancing valve for chilled water system.</t>
+  </si>
+  <si>
+    <t>Mall requirement to flush chilled water pipe network with chemical.</t>
+  </si>
+  <si>
+    <t>Instruction received from the Client to cover insulation with canvas cloth and related material for painting.</t>
+  </si>
+  <si>
+    <t>Mall requirement to install Fire flexbile pipe with Concealed sprinkler.</t>
+  </si>
+  <si>
+    <t>This is OFM item not delivered by vendor, instructioun received from Client to supply and fix.</t>
+  </si>
+  <si>
+    <t>Pioneer Comments</t>
+  </si>
 </sst>
 </file>
 
@@ -74,7 +98,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,13 +112,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -163,8 +180,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,8 +205,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -258,85 +292,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="4"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="4"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="4"/>
+    <xf numFmtId="165" fontId="13" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -678,36 +759,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:D27"/>
+  <dimension ref="A7:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="67" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.140625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="30.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
     </row>
     <row r="10" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
@@ -720,115 +801,193 @@
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="24"/>
-    </row>
-    <row r="16" spans="1:3" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="B15" s="15"/>
+      <c r="C15" s="20"/>
+    </row>
+    <row r="16" spans="1:3" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>1</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="21">
         <v>433650</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+    <row r="17" spans="1:3" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
         <v>2</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="21">
         <v>102361.60000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="12" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+    <row r="18" spans="1:3" s="11" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
         <v>3</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="21">
         <v>105888</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+    <row r="19" spans="1:3" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
         <v>4</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="21">
         <v>708480</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+    <row r="20" spans="1:3" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
         <v>5</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="21">
         <v>1680627.2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+    <row r="21" spans="1:3" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
         <v>6</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="21">
         <v>226048</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="26"/>
-    </row>
-    <row r="23" spans="1:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14" t="s">
+      <c r="B22" s="17"/>
+      <c r="C22" s="22"/>
+    </row>
+    <row r="23" spans="1:3" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="18">
         <f>SUM(C16:C22)</f>
         <v>3257054.8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D27" s="7"/>
+    <row r="25" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="26"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+    </row>
+    <row r="27" spans="1:3" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="29">
+        <v>1</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="29">
+        <v>2</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="29">
+        <v>3</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="11" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="29">
+        <v>4</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="29">
+        <v>5</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="29">
+        <v>6</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
